--- a/Relatorios/APIGooglePlaces.xlsx
+++ b/Relatorios/APIGooglePlaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diretorio\ConsumindoAPIs\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CADB06A-F3C5-4018-A24F-16C1A6B04DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E980589E-880C-4104-ADCC-43E1964FA6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,355 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
+  <si>
+    <t>business_status</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>icon_background_color</t>
+  </si>
+  <si>
+    <t>icon_mask_base_uri</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>opening_hours</t>
+  </si>
+  <si>
+    <t>photos</t>
+  </si>
+  <si>
+    <t>place_id</t>
+  </si>
+  <si>
+    <t>plus_code</t>
+  </si>
+  <si>
+    <t>price_level</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>user_ratings_total</t>
+  </si>
+  <si>
+    <t>vicinity</t>
+  </si>
+  <si>
+    <t>OPERATIONAL</t>
+  </si>
+  <si>
+    <t>{'location': {'lat': -33.8587323, 'lng': 151.2100055}, 'viewport': {'northeast': {'lat': -33.85739847010727, 'lng': 151.2112436298927}, 'southwest': {'lat': -33.86009812989271, 'lng': 151.2085439701072}}}</t>
+  </si>
+  <si>
+    <t>{'location': {'lat': -33.8675219, 'lng': 151.2016502}, 'viewport': {'northeast': {'lat': -33.86614532010728, 'lng': 151.2031259298927}, 'southwest': {'lat': -33.86884497989272, 'lng': 151.2004262701072}}}</t>
+  </si>
+  <si>
+    <t>{'location': {'lat': -33.8676569, 'lng': 151.2017213}, 'viewport': {'northeast': {'lat': -33.86629922010728, 'lng': 151.2031712798927}, 'southwest': {'lat': -33.86899887989272, 'lng': 151.2004716201073}}}</t>
+  </si>
+  <si>
+    <t>{'location': {'lat': -33.8677035, 'lng': 151.2017297}, 'viewport': {'northeast': {'lat': -33.86634597010728, 'lng': 151.2031781298927}, 'southwest': {'lat': -33.86904562989272, 'lng': 151.2004784701072}}}</t>
+  </si>
+  <si>
+    <t>{'location': {'lat': -33.8675883, 'lng': 151.2016452}, 'viewport': {'northeast': {'lat': -33.86623847010728, 'lng': 151.2029950298927}, 'southwest': {'lat': -33.86893812989273, 'lng': 151.2002953701073}}}</t>
+  </si>
+  <si>
+    <t>{'location': {'lat': -33.8609391, 'lng': 151.2098735}, 'viewport': {'northeast': {'lat': -33.85958927010727, 'lng': 151.2112233298927}, 'southwest': {'lat': -33.86228892989272, 'lng': 151.2085236701072}}}</t>
+  </si>
+  <si>
+    <t>{'location': {'lat': -33.8686058, 'lng': 151.2018206}, 'viewport': {'northeast': {'lat': -33.86730002010728, 'lng': 151.2032717798927}, 'southwest': {'lat': -33.86999967989272, 'lng': 151.2005721201073}}}</t>
+  </si>
+  <si>
+    <t>{'location': {'lat': -33.8712692, 'lng': 151.1898651}, 'viewport': {'northeast': {'lat': -33.86952792010727, 'lng': 151.1914560298927}, 'southwest': {'lat': -33.87222757989272, 'lng': 151.1887563701073}}}</t>
+  </si>
+  <si>
+    <t>{'location': {'lat': -33.85876140000001, 'lng': 151.2100004}, 'viewport': {'northeast': {'lat': -33.85737742010728, 'lng': 151.2111319298927}, 'southwest': {'lat': -33.86007707989272, 'lng': 151.2084322701072}}}</t>
+  </si>
+  <si>
+    <t>{'location': {'lat': -33.8669866, 'lng': 151.2017231}, 'viewport': {'northeast': {'lat': -33.86563197010727, 'lng': 151.2031347298927}, 'southwest': {'lat': -33.86833162989272, 'lng': 151.2004350701073}}}</t>
+  </si>
+  <si>
+    <t>{'location': {'lat': -33.870383, 'lng': 151.1979245}, 'viewport': {'northeast': {'lat': -33.86901092010727, 'lng': 151.1991702798927}, 'southwest': {'lat': -33.87171057989271, 'lng': 151.1964706201073}}}</t>
+  </si>
+  <si>
+    <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/bar-71.png</t>
+  </si>
+  <si>
+    <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/generic_business-71.png</t>
+  </si>
+  <si>
+    <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+  </si>
+  <si>
+    <t>#FF9E67</t>
+  </si>
+  <si>
+    <t>#7B9EB0</t>
+  </si>
+  <si>
+    <t>#13B5C7</t>
+  </si>
+  <si>
+    <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/bar_pinlet</t>
+  </si>
+  <si>
+    <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/generic_pinlet</t>
+  </si>
+  <si>
+    <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+  </si>
+  <si>
+    <t>Cruise Bar</t>
+  </si>
+  <si>
+    <t>Sydney Harbour Dinner Cruises</t>
+  </si>
+  <si>
+    <t>Clearview Sydney Harbour Cruises</t>
+  </si>
+  <si>
+    <t>Sydney Harbour Lunch Cruise</t>
+  </si>
+  <si>
+    <t>Sydney Showboats - Dinner Cruise With Show</t>
+  </si>
+  <si>
+    <t>Magistic Cruises</t>
+  </si>
+  <si>
+    <t>Australian Cruise Group</t>
+  </si>
+  <si>
+    <t>Rhythmboat Cruises</t>
+  </si>
+  <si>
+    <t>Glass Island</t>
+  </si>
+  <si>
+    <t>Junk Lounge</t>
+  </si>
+  <si>
+    <t>Sydney New Year's Eve Cruises</t>
+  </si>
+  <si>
+    <t>King Street Wharf Darling Harbour</t>
+  </si>
+  <si>
+    <t>The Little Snail Restaurant</t>
+  </si>
+  <si>
+    <t>{'open_now': 'false'}</t>
+  </si>
+  <si>
+    <t>{'open_now': 'true'}</t>
+  </si>
+  <si>
+    <t>[{'height': 608, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/112582655193348962755"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'Aap_uECvJIZuXT-uLDYm4DPbrV7gXVPeplbTWUgcOJ6rnfc4bUYCEAwPU_AmXGIaj0PDhWPbmrjQC8hhuXRJQjnA1-iREGEn7I0ZneHg5OP1mDT7lYVpa1hUPoz7cn8iCGBN9MynjOPSUe-UooRrFw2XEXOLgRJ-uKr6tGQUp77CWVocpcoG', 'width': 1080}]</t>
+  </si>
+  <si>
+    <t>[{'height': 835, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/109764923610545394994"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'Aap_uEBVsYnNcrpRixtrlHBztigZh70CwYkNWZzQnqJ39SjeBo_wvgKf-kXc6tgaMLBdQrRKmxmSKjOezoZrv-sHKVbTX0OI48HBqYYVnQiZQ-WGeuQDsLEPwX7LaVPa68nUAxX114Zpqt7bryoO9wL4qXdgEnopbOp5WWLALhKEHoIEH7f7', 'width': 1200}]</t>
+  </si>
+  <si>
+    <t>[{'height': 685, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/114394575270272775071"&gt;Clearview Glass Boat Cruises&lt;/a&gt;'], 'photo_reference': 'Aap_uEAlExjnXA0VWyb_oYwCJ8utWG_Ennhwmn_xadpgenMNUgTuxrvgf1Xdw4bsbL6kFSWH7bhbpVHK1esdNY37ancJvbL_Gnsc7EZ5KEBNPvYZ_ZEyLco4a5v34LFkodxfFZbJ-ejO3zN4W_0C37P5jAmTnLWMNFYUPvoU3UMi70qHRNF5', 'width': 1024}]</t>
+  </si>
+  <si>
+    <t>[{'height': 545, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/102428257696490257922"&gt;Sydney Harbour Lunch Cruise&lt;/a&gt;'], 'photo_reference': 'Aap_uEBFyQ2xDzHk7dGF_FTvNeJ01NQD6GROq89rufdGQl5Gi0zVfpnETBjPK2v7UEDl_6F-m8aR5FcEWJMqPaH4Oh_CQh2jaUAUAesUInucpCe7OFdleSYJ_8kgunhsIvGf1D1s_pes6Rk2JMVEs8rEs6ZHSTmUQXX2Yh-Gt9MuPQdYNuNv', 'width': 969}]</t>
+  </si>
+  <si>
+    <t>[{'height': 4912, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/105311284660389698992"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'Aap_uED1aGaMs8xYfiuzeBqVcFsk3yguUujdE4S3rNThMpLtoU0RukF40KCt0CAxgHP1HoY8Z7NYcWvax6qmMMVPBbmzGhoaiwiAAyv2GGA9vhcgsJ5w0LweT0y1lgRGZxU3nZIdNLiYAp9JHM171UkN04H6UqYSxKVZ8N_f2aslkqOaBF_e', 'width': 7360}]</t>
+  </si>
+  <si>
+    <t>[{'height': 1536, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/103073818292552522030"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'Aap_uEC8bq-YphfIDcdxANBfgGMBIX2B0ggNep9ddVoePj6sfdcdusIn07x8biaxevZ_6BpzDDRsUL8No5P3ftI4on_pqbAbIEUL5gFGgezpVZ3M9GWvKdJm3njO_aJaghWl4_aQb75c0WGYDRFPhn6fWsLkD7KxodviJeCX4OCGt1eRJnlK', 'width': 2048}]</t>
+  </si>
+  <si>
+    <t>[{'height': 1536, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/113088009011192061895"&gt;Keith Bauman&lt;/a&gt;'], 'photo_reference': 'Aap_uED7aBwIbN6iuoZi8e9xCrt6F_EhppGCBfzYCgypetw8cGn4Ui0Y3JZe3QJ0buf0zc54BtPz-SWXxecPd6kDvNNZD5Eu_ZzTP13rXMzSDJa6UcwFiXU4y3qYrWAyJ6mtYrd2PJgw0KzvYaZoPze7Ka6zG6k3IOjeSICDYH6YOzkXhelj', 'width': 2048}]</t>
+  </si>
+  <si>
+    <t>[{'height': 2269, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/104066891898402903288"&gt;Rhythmboat Sydney Harbour Cruises&lt;/a&gt;'], 'photo_reference': 'Aap_uEAT8eop-IsfSAQ3KP6YXRNRsFkESXDecsaPnaVhq5bZzny5guvhS4smciianRGbZgDtFtAcU-ZXTaBfuh80CFw8vpJyKaB4grgW_CW64rU1JF9FDy_M8HtEk3rOrMhPDiF8ns-mc16E4rWSuAQIc76Du_eCd63ofoErESOtSWAQVcew', 'width': 4032}]</t>
+  </si>
+  <si>
+    <t>[{'height': 4480, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/117745044320706972021"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'Aap_uEAaToCBaHP7Gfdjc740gwIkQcjeUD97NO0TKXJ5IXB0CLGQA6slEpHn4k9LwyhoAzzbSTXJduYyFIkHVmQWGp34NggRxrtOWp7sJf5N6j0ASYlJPmAtWUaaCWnbx_pxdndsopeJ7PYn9kTiMgFcSs-GeipI8hDZgAJswMBnfsO0xWQ-', 'width': 6720}]</t>
+  </si>
+  <si>
+    <t>[{'height': 608, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/104473997089847488714"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'Aap_uEDaHF9VZFV88tQqFyIgmPlcbCsK-ScCGuUVGh0mTAP4OzWh_0q0T5rPbeC7bas7vD5vC9oS95jtdr4oOnQmhGDAIbHkv4E6UHrQIl0f3XZ-3-RRDjn293w4qQb_BfhbPPO3nokU7npfMfVvCcelWf9WHiWNHT4EEHrFtvuhAWKobTnC', 'width': 1080}]</t>
+  </si>
+  <si>
+    <t>[{'height': 1600, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/115281801304517408477"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'Aap_uEDceKHtQ9Hf2eHwnQYXLqrwZ1X2LYVhsfXbqrpIm3_lXZ9apURjAXtVgRVTGxJPD7BtaqR8C7bwaSTakmi0Pazn7g3suj8ZaQRBqheT3KVJDhZ9_GwVInLkWbxqnhivEXs1a-MC_J8XF1SL_5AQ3mAETgiLRQ04116IAEV5vHyIGRsa', 'width': 2400}]</t>
+  </si>
+  <si>
+    <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/101920674986627213698"&gt;朱品貞&lt;/a&gt;'], 'photo_reference': 'Aap_uEDwKXVOjIaCj3LptOdd86B5umsdG7Z3jcvqcpUVLwHS6w8VGEkphgC8-shAx95CrsuXpnKz-XVIixVmgagQHKPH3vSLLqJ6LOAR7Q-_jiyx3ELXD0pm7AARiAtQAMBN9A-oqbtvGbE27yDpvBS1lKe9PCm-dMfrHIIcsS91Qeq2E4b6', 'width': 4032}]</t>
+  </si>
+  <si>
+    <t>[{'height': 900, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/114727320476039103791"&gt;The Little Snail&lt;/a&gt;'], 'photo_reference': 'Aap_uEA9aHKkB_6VoFx4VHRSp19PCwnTOuGfpmDYw1NdYNbzncfdjjfEmiiFz-E4tIJ6iGVZjR_bejX6wNr5thJjqlcdQ2PvPyTTo1jGtxk31JG9b6Vd0vu_v4Ep7yutzf3KTzBjYFBIGsYPf3Pj0DptMWPLP7fn33SBT7YmRqDEoGcUsBzw', 'width': 1350}]</t>
+  </si>
+  <si>
+    <t>ChIJi6C1MxquEmsR9-c-3O48ykI</t>
+  </si>
+  <si>
+    <t>ChIJM1mOVTS6EmsRKaDzrTsgids</t>
+  </si>
+  <si>
+    <t>ChIJNQfwZTiuEmsR1m1x9w0E2V0</t>
+  </si>
+  <si>
+    <t>ChIJUbf3iDiuEmsROJxXbhYO7cM</t>
+  </si>
+  <si>
+    <t>ChIJjRuIiTiuEmsRCHhYnrWiSok</t>
+  </si>
+  <si>
+    <t>ChIJxRjqYTiuEmsRGebAA_chDLE</t>
+  </si>
+  <si>
+    <t>ChIJpU8KgUKuEmsRKErVGEaa11w</t>
+  </si>
+  <si>
+    <t>ChIJyWEHuEmuEmsRm9hTkapTCrk</t>
+  </si>
+  <si>
+    <t>ChIJnScuboavEmsRyh-FGxhc3pw</t>
+  </si>
+  <si>
+    <t>ChIJq9W3HZOvEmsRYtKNTRmq34M</t>
+  </si>
+  <si>
+    <t>ChIJ__8_hziuEmsR27ucFXECfOg</t>
+  </si>
+  <si>
+    <t>ChIJkfDzJ72vEmsR8xtYbk5f0p0</t>
+  </si>
+  <si>
+    <t>ChIJtwapWjeuEmsRcxV5JARHpSk</t>
+  </si>
+  <si>
+    <t>{'compound_code': '46R6+G2 The Rocks, New South Wales', 'global_code': '4RRH46R6+G2'}</t>
+  </si>
+  <si>
+    <t>{'compound_code': '46J2+XM Sydney, New South Wales', 'global_code': '4RRH46J2+XM'}</t>
+  </si>
+  <si>
+    <t>{'compound_code': '46J2+WM Sydney, New South Wales', 'global_code': '4RRH46J2+WM'}</t>
+  </si>
+  <si>
+    <t>{'compound_code': '46Q5+JW Sydney, New South Wales', 'global_code': '4RRH46Q5+JW'}</t>
+  </si>
+  <si>
+    <t>{'compound_code': '46J2+HP Sydney, New South Wales', 'global_code': '4RRH46J2+HP'}</t>
+  </si>
+  <si>
+    <t>{'compound_code': '45HQ+FW Pyrmont, New South Wales', 'global_code': '4RRH45HQ+FW'}</t>
+  </si>
+  <si>
+    <t>{'compound_code': '46R6+F2 The Rocks, New South Wales', 'global_code': '4RRH46R6+F2'}</t>
+  </si>
+  <si>
+    <t>{'compound_code': '46M2+6M Sydney, New South Wales', 'global_code': '4RRH46M2+6M'}</t>
+  </si>
+  <si>
+    <t>{'compound_code': '45HX+R5 Pyrmont, New South Wales', 'global_code': '4RRH45HX+R5'}</t>
+  </si>
+  <si>
+    <t>GOOGLE</t>
+  </si>
+  <si>
+    <t>['bar', 'restaurant', 'food', 'point_of_interest', 'establishment']</t>
+  </si>
+  <si>
+    <t>['tourist_attraction', 'travel_agency', 'restaurant', 'food', 'point_of_interest', 'establishment']</t>
+  </si>
+  <si>
+    <t>['travel_agency', 'restaurant', 'food', 'point_of_interest', 'establishment']</t>
+  </si>
+  <si>
+    <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+  </si>
+  <si>
+    <t>['tourist_attraction', 'convenience_store', 'bowling_alley', 'travel_agency', 'bar', 'restaurant', 'food', 'point_of_interest', 'store', 'establishment']</t>
+  </si>
+  <si>
+    <t>Level 1, 2 and 3, Overseas Passenger Terminal, Circular Quay W, The Rocks</t>
+  </si>
+  <si>
+    <t>32 The Promenade, Sydney</t>
+  </si>
+  <si>
+    <t>32 The Promenade King Street Wharf 5, Sydney</t>
+  </si>
+  <si>
+    <t>5/32 The Promenade, Sydney</t>
+  </si>
+  <si>
+    <t>32 The Promenade, King Street Wharf, 5, Sydney</t>
+  </si>
+  <si>
+    <t>King Street Wharf, 32 The Promenade, Sydney</t>
+  </si>
+  <si>
+    <t>6 Cirular Quay, Sydney</t>
+  </si>
+  <si>
+    <t>King Street Wharf, King St, Sydney</t>
+  </si>
+  <si>
+    <t>37 Bank St, Pyrmont</t>
+  </si>
+  <si>
+    <t>Level 2, Overseas Passenger Terminal, Circular Quay W, The Rocks</t>
+  </si>
+  <si>
+    <t>King Street Wharf 5, 32 The Promenade, Sydney</t>
+  </si>
+  <si>
+    <t>The Promenade, Lime St, Sydney</t>
+  </si>
+  <si>
+    <t>3/50 Murray St, Pyrmont</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,7 +379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,14 +387,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,14 +755,814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D10:E11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="181.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="83" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="130.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="67.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2">
+        <v>1269</v>
+      </c>
+      <c r="R2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3">
+        <v>4.8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4">
+        <v>3.8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4">
+        <v>49</v>
+      </c>
+      <c r="R4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5">
+        <v>3.9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6">
+        <v>119</v>
+      </c>
+      <c r="R6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7">
+        <v>3.9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7">
+        <v>99</v>
+      </c>
+      <c r="R7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9">
+        <v>3.9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10">
+        <v>90</v>
+      </c>
+      <c r="R10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11">
+        <v>63</v>
+      </c>
+      <c r="R11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13">
+        <v>3213</v>
+      </c>
+      <c r="R13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>4.5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14">
+        <v>1916</v>
+      </c>
+      <c r="R14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>